--- a/dados/shop audio.xlsx
+++ b/dados/shop audio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:16759979#searchVariation=MLB21562641&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:16759979#searchVariation=MLB21562641&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -496,17 +516,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:16759979#searchVariation=MLB24154371&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:16759979#searchVariation=MLB24154371&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -521,17 +547,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:16759979#searchVariation=MLB21320712&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:16759979#searchVariation=MLB21320712&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -546,17 +578,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:16759979#searchVariation=MLB21348561&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:16759979#searchVariation=MLB21348561&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -571,17 +613,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:16759979#searchVariation=MLB27687422&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:16759979#searchVariation=MLB27687422&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -596,17 +644,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:16759979#searchVariation=MLB24834408&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:16759979#searchVariation=MLB24834408&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -621,17 +675,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:16759979#searchVariation=MLB21392652&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:16759979#searchVariation=MLB21392652&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -646,17 +706,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:16759979#searchVariation=MLB30476096&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:16759979#searchVariation=MLB30476096&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -671,17 +737,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:16759979#searchVariation=MLB28243528&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:16759979#searchVariation=MLB28243528&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -696,17 +768,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:16759979#searchVariation=MLB23998473&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:16759979#searchVariation=MLB23998473&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -721,17 +799,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443863235-fonte-e-carregadora-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3443863235-fonte-e-carregadora-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -746,17 +830,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4130386596-fonte-e-carregadora-jfa-storm-lite-120a-lite-12v-bivolt-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4130386596-fonte-e-carregadora-jfa-storm-lite-120a-lite-12v-bivolt-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -771,17 +861,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453565395-controle-remoto-de-longa-distacia-jfa-1200-acqua-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3453565395-controle-remoto-de-longa-distacia-jfa-1200-acqua-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -796,17 +892,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:16759979#searchVariation=MLB21455208&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:16759979#searchVariation=MLB21455208&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -821,17 +923,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043499656-fonte-e-carregadora-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4043499656-fonte-e-carregadora-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -846,17 +954,23 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043537196-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4043537196-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -871,17 +985,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043447922-fonte-carregadora-bateria-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4043447922-fonte-carregadora-bateria-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -896,17 +1016,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976874772-fonte-carregador-jfa-bob-90-amperes-bivolt-inteligente-full-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3976874772-fonte-carregador-jfa-bob-90-amperes-bivolt-inteligente-full-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -921,17 +1047,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4034737960-fonte-jfa-200a-automotiva-slim-bivolt-voltimetro-digital-som-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4034737960-fonte-jfa-200a-automotiva-slim-bivolt-voltimetro-digital-som-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -946,17 +1082,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063639678-controle-jfa-redline-wr-de-longa-distacia-longo-alcance-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4063639678-controle-jfa-redline-wr-de-longa-distacia-longo-alcance-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -971,17 +1113,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482092415-fonte-jfa-carrregador-200a-storm-lite-automotiva-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3482092415-fonte-jfa-carrregador-200a-storm-lite-automotiva-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -996,17 +1144,23 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4130348370-fonte-jfa-carrregador-120a-storm-lite-automotiva-12v-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4130348370-fonte-jfa-carrregador-120a-storm-lite-automotiva-12v-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1175,23 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482145079-fonte-jfa-carrregador-200a-bob-storm-automotiva-bivolt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3482145079-fonte-jfa-carrregador-200a-bob-storm-automotiva-bivolt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1206,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3441604121-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3441604121-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1241,23 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486525140-controle-jfa-k1200-longa-distancia-1200-metros-som-branco-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1486525140-controle-jfa-k1200-longa-distancia-1200-metros-som-branco-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1272,23 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3445532345-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3445532345-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1303,23 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443939751-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3443939751-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -1146,17 +1334,23 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063855484-controle-de-longa-distancia-jfa-k600-longo-alcancecontrole-d-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4063855484-controle-de-longa-distancia-jfa-k600-longo-alcancecontrole-d-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -1171,17 +1365,23 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3445541585-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3445541585-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -1196,17 +1396,23 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482092379-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3482092379-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1427,23 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976837034-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3976837034-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -1246,17 +1458,23 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4130348364-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4130348364-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1489,23 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2040798508-fonte-automotiva-70a-jfa-carregador-bateria-bivolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2040798508-fonte-automotiva-70a-jfa-carregador-bateria-bivolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1520,23 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:16759979#searchVariation=MLB27685629&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:16759979#searchVariation=MLB27685629&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1551,23 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043499652-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4043499652-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -1346,17 +1582,23 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2040798511-fonte-automotiva-jfa-70a-3500w-carregador-bateria-bivolt-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2040798511-fonte-automotiva-jfa-70a-3500w-carregador-bateria-bivolt-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -1371,17 +1613,23 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2051476762-controle-k600-jfa-longa-alcance-600-metros-som-automotivo-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2051476762-controle-k600-jfa-longa-alcance-600-metros-som-automotivo-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -1396,17 +1644,23 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3445532487-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3445532487-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -1421,17 +1675,23 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482119493-fonte-carregador-automotiva-jfa-bob-storm-200a-bivolt-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3482119493-fonte-carregador-automotiva-jfa-bob-storm-200a-bivolt-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -1446,17 +1706,23 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486588704-controle-jfa-k1200-longa-distancia-1200-metros-som-preto-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1486588704-controle-jfa-k1200-longa-distancia-1200-metros-som-preto-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -1471,17 +1737,23 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453641643-controle-remoto-jfa-1200-acqua-longe-alcance-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3453641643-controle-remoto-jfa-1200-acqua-longe-alcance-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1768,23 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453664851-controle-de-longa-distancia-jfa-1200-acqua-branco-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3453664851-controle-de-longa-distancia-jfa-1200-acqua-branco-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -1521,17 +1799,23 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063881414-controle-jfa-k600-longa-distacia-longo-alcance-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4063881414-controle-jfa-k600-longa-distacia-longo-alcance-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -1546,17 +1830,23 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453774553-controle-longa-distncia-600-metros-jfa-k600-preto-laranja-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3453774553-controle-longa-distncia-600-metros-jfa-k600-preto-laranja-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -1571,17 +1861,23 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063816780-controle-remoto-de-longa-distacia-jfa-k600-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4063816780-controle-remoto-de-longa-distacia-jfa-k600-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -1596,17 +1892,23 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063881402-controle-remoto-k600-jfa-600-metros-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4063881402-controle-remoto-k600-jfa-600-metros-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>
@@ -1621,17 +1923,23 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976804576-fonte-120a-jfa-storm-bivolt-medidor-cca-e-sci-automotiva-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D472c1335-b17e-41f1-aed7-dd79e6e284dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3976804576-fonte-120a-jfa-storm-bivolt-medidor-cca-e-sci-automotiva-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
         </is>
       </c>
     </row>

--- a/dados/shop audio.xlsx
+++ b/dados/shop audio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -473,16 +473,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>805.59</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -491,38 +491,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:16759979#searchVariation=MLB21562641&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:16759979#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>796.35</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>443.07</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -532,25 +536,29 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:16759979#searchVariation=MLB24154371&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:16759979#searchVariation=MLB21562641&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>492.3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>796.35</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -558,32 +566,32 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:16759979#searchVariation=MLB21320712&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:16759979#searchVariation=MLB24154371&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>805.59</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>492.3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -598,25 +606,29 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:16759979#searchVariation=MLB21348561&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:16759979#searchVariation=MLB21320712&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>693.7</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>NA</t>
@@ -624,28 +636,28 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:16759979#searchVariation=MLB27687422&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:16759979#searchVariation=MLB24834408&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>693.7</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>77.90000000000001</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
@@ -655,28 +667,28 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:16759979#searchVariation=MLB24834408&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:16759979#searchVariation=MLB27687422&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>704.89</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>66.2</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -686,30 +698,34 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:16759979#searchVariation=MLB21392652&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:16759979#searchVariation=MLB30476096&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>704.89</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>NA</t>
@@ -717,12 +733,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:16759979#searchVariation=MLB30476096&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:16759979#searchVariation=MLB21392652&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
@@ -732,13 +748,13 @@
           <t>Controle De Longa Distancia Jfa K600 600 Metros Com 10 Cores Cor</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>58.13</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
@@ -753,7 +769,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:16759979#searchVariation=MLB28243528&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:16759979#searchVariation=MLB28243528&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
@@ -763,15 +779,19 @@
           <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>595.85</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>NA</t>
@@ -784,23 +804,23 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:16759979#searchVariation=MLB23998473&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:16759979#searchVariation=MLB23998473&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Jfa Storm 120a C/medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>749.65</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t xml:space="preserve"> Fonte E Carregadora Jfa Bob Storm 200a Lite Bivolt</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>772.02</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
@@ -815,25 +835,29 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443863235-fonte-e-carregadora-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482119509-fonte-e-carregadora-jfa-bob-storm-200a-lite-bivolt-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Jfa Storm Lite 120a Lite 12v Bivolt</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>637.0700000000001</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>Fonte E Carregadora Jfa Storm 120a C/medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>749.65</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -846,25 +870,29 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4130386596-fonte-e-carregadora-jfa-storm-lite-120a-lite-12v-bivolt-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3443863235-fonte-e-carregadora-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Controle Remoto De Longa Distacia Jfa 1200 Acqua</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>Fonte E Carregadora Jfa Storm Lite 120a Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>637.0700000000001</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>NA</t>
@@ -877,23 +905,23 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453565395-controle-remoto-de-longa-distacia-jfa-1200-acqua-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4130386596-fonte-e-carregadora-jfa-storm-lite-120a-lite-12v-bivolt-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>548.24</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle Remoto De Longa Distacia Jfa 1200 Acqua</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>87.90000000000001</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -903,30 +931,34 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:16759979#searchVariation=MLB21455208&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453565395-controle-remoto-de-longa-distacia-jfa-1200-acqua-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Jfa Storm 60a C/medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>525.87</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>548.24</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -934,30 +966,34 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043499656-fonte-e-carregadora-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:16759979#searchVariation=MLB21455208&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Jfa Storm 70a C/medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>581.8200000000001</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>Fonte E Carregadora Jfa Storm 60a C/medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>525.87</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>NA</t>
@@ -970,25 +1006,29 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043537196-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043499656-fonte-e-carregadora-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Carregadora Bateria Jfa Storm 70a C/medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+          <t>Fonte E Carregadora Jfa Storm 70a C/medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>581.8200000000001</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1001,25 +1041,29 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043447922-fonte-carregadora-bateria-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043537196-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 90 Amperes Bivolt Inteligente Full</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>492.3</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>Fonte Carregadora Bateria Jfa Storm 70a C/medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>581.8200000000001</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1032,23 +1076,23 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976874772-fonte-carregador-jfa-bob-90-amperes-bivolt-inteligente-full-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043447922-fonte-carregadora-bateria-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Jfa 200a Automotiva Slim Bivolt Voltímetro Digital Som</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>847.99</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
+          <t>Fonte Carregador Jfa Bob 90 Amperes Bivolt Inteligente Full</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>492.3</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1057,35 +1101,39 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4034737960-fonte-jfa-200a-automotiva-slim-bivolt-voltimetro-digital-som-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976874772-fonte-carregador-jfa-bob-90-amperes-bivolt-inteligente-full-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Controle Jfa Redline Wr De Longa Distacia Longo Alcance</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>77.98999999999999</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>Fonte Jfa 200a Automotiva Slim Bivolt Voltímetro Digital Som</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>847.99</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1098,23 +1146,23 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063639678-controle-jfa-redline-wr-de-longa-distacia-longo-alcance-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4034737960-fonte-jfa-200a-automotiva-slim-bivolt-voltimetro-digital-som-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carrregador 200a Storm Lite Automotiva Bivolt</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>757.59</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle Jfa Redline Wr De Longa Distacia Longo Alcance</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>77.98999999999999</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
@@ -1129,25 +1177,29 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482092415-fonte-jfa-carrregador-200a-storm-lite-automotiva-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4063639678-controle-jfa-redline-wr-de-longa-distacia-longo-alcance-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carrregador 120a Storm Lite Automotiva 12v Bivolt</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>595.85</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>Fonte Jfa Carrregador 200a Storm Lite Automotiva Bivolt</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>757.59</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1160,25 +1212,29 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4130348370-fonte-jfa-carrregador-120a-storm-lite-automotiva-12v-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482092415-fonte-jfa-carrregador-200a-storm-lite-automotiva-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carrregador 200a Bob Storm Automotiva Bivolt</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>693.7</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>Fonte Jfa Carrregador 120a Storm Lite Automotiva 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>595.85</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1191,23 +1247,23 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482145079-fonte-jfa-carrregador-200a-bob-storm-automotiva-bivolt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4130348370-fonte-jfa-carrregador-120a-storm-lite-automotiva-12v-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>847.99</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
+          <t>Fonte Jfa Carrregador 200a Bob Storm Automotiva Bivolt</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>693.7</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1226,25 +1282,29 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3441604121-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482145079-fonte-jfa-carrregador-200a-bob-storm-automotiva-bivolt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Branco</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>847.99</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1252,28 +1312,28 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486525140-controle-jfa-k1200-longa-distancia-1200-metros-som-branco-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3441604121-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Bob Storm 90amperes Jfa</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>469.92</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Branco</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>66.2</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
@@ -1283,30 +1343,34 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3445532345-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1486525140-controle-jfa-k1200-longa-distancia-1200-metros-som-branco-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>704.89</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>Fonte E Carregadora Bob Storm 90amperes Jfa</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>469.92</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1319,25 +1383,29 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443939751-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3445532345-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Controle De Longa Distancia Jfa K600 Longo Alcancecontrole D</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>704.89</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1345,28 +1413,28 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063855484-controle-de-longa-distancia-jfa-k600-longo-alcancecontrole-d-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3443939751-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>548.24</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle De Longa Distancia Jfa K600 Longo Alcancecontrole D</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>69.2</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
@@ -1376,30 +1444,34 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3445541585-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4063855484-controle-de-longa-distancia-jfa-k600-longo-alcancecontrole-d-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Jfa Storm Lite 200a Bivolt </t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>757.59</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>548.24</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1412,25 +1484,29 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482092379-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3445541585-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>749.65</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t xml:space="preserve">Fonte Carregador Jfa Storm Lite 200a Bivolt </t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>757.59</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1438,30 +1514,34 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976837034-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482092379-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>595.85</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>749.65</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1469,30 +1549,34 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4130348364-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976837034-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70a Jfa Carregador Bateria Bivolt</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>548.24</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>595.85</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1505,25 +1589,29 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2040798508-fonte-automotiva-70a-jfa-carregador-bateria-bivolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4130348364-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>Fonte Automotiva 70a Jfa Carregador Bateria Bivolt</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>548.24</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1531,28 +1619,28 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:16759979#searchVariation=MLB27685629&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2040798508-fonte-automotiva-70a-jfa-carregador-bateria-bivolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>492.3</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>77.90000000000001</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
@@ -1562,30 +1650,34 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043499652-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:16759979#searchVariation=MLB27685629&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 70a 3500w Carregador Bateria Bivolt</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>581.8200000000001</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>492.3</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1593,30 +1685,34 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2040798511-fonte-automotiva-jfa-70a-3500w-carregador-bateria-bivolt-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043499652-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Controle K600 Jfa Longa Alcance 600 Metros Som Automotivo</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>58.13</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa 70a 3500w Carregador Bateria Bivolt</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>581.8200000000001</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1629,23 +1725,23 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2051476762-controle-k600-jfa-longa-alcance-600-metros-som-automotivo-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2040798511-fonte-automotiva-jfa-70a-3500w-carregador-bateria-bivolt-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fonte Jfa 90 Amperes Som Altomotivo Caixa Bob Promoçao Black</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>469.92</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle K600 Jfa Longa Alcance 600 Metros Som Automotivo</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>58.13</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
@@ -1655,30 +1751,34 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3445532487-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2051476762-controle-k600-jfa-longa-alcance-600-metros-som-automotivo-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa Bob Storm 200a Bivolt</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>693.7</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>Fonte Jfa 90 Amperes Som Altomotivo Caixa Bob Promoçao Black</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>469.92</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1691,25 +1791,29 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482119493-fonte-carregador-automotiva-jfa-bob-storm-200a-bivolt-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3445532487-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Preto</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>Fonte Carregador Automotiva Jfa Bob Storm 200a Bivolt</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>693.7</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1717,28 +1821,28 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486588704-controle-jfa-k1200-longa-distancia-1200-metros-som-preto-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482119493-fonte-carregador-automotiva-jfa-bob-storm-200a-bivolt-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa 1200 Acqua Longe Alcance</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>76.98999999999999</v>
-      </c>
-      <c r="C42" t="inlineStr">
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Preto</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C42" t="n">
+        <v>66.2</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
@@ -1753,23 +1857,23 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453641643-controle-remoto-jfa-1200-acqua-longe-alcance-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1486588704-controle-jfa-k1200-longa-distancia-1200-metros-som-preto-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Controle De Longa Distancia Jfa 1200 Acqua Branco</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="C43" t="inlineStr">
+          <t>Controle Remoto Jfa 1200 Acqua Longe Alcance</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C43" t="n">
+        <v>76.98999999999999</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
@@ -1779,28 +1883,28 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453664851-controle-de-longa-distancia-jfa-1200-acqua-branco-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453641643-controle-remoto-jfa-1200-acqua-longe-alcance-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Controle Jfa K600 Longa Distacia Longo Alcance</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>58.13</v>
-      </c>
-      <c r="C44" t="inlineStr">
+          <t>Controle De Longa Distancia Jfa 1200 Acqua Branco</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C44" t="n">
+        <v>78.90000000000001</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
@@ -1815,23 +1919,23 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063881414-controle-jfa-k600-longa-distacia-longo-alcance-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453664851-controle-de-longa-distancia-jfa-1200-acqua-branco-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Controle Longa Distância 600 Metros Jfa K600 Preto-laranja</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>62.89</v>
-      </c>
-      <c r="C45" t="inlineStr">
+          <t>Controle Jfa K600 Longa Distacia Longo Alcance</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C45" t="n">
+        <v>58.13</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
@@ -1841,28 +1945,28 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453774553-controle-longa-distncia-600-metros-jfa-k600-preto-laranja-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4063881414-controle-jfa-k600-longa-distacia-longo-alcance-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Controle Remoto De Longa Distacia Jfa K600</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
+          <t>Controle Longa Distância 600 Metros Jfa K600 Preto-laranja</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
         <v>62.89</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
@@ -1877,23 +1981,23 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063816780-controle-remoto-de-longa-distacia-jfa-k600-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453774553-controle-longa-distncia-600-metros-jfa-k600-preto-laranja-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Controle Remoto  K600 Jfa 600 Metros</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>58.13</v>
-      </c>
-      <c r="C47" t="inlineStr">
+          <t>Controle Remoto De Longa Distacia Jfa K600</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C47" t="n">
+        <v>62.89</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
@@ -1903,28 +2007,28 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063881402-controle-remoto-k600-jfa-600-metros-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4063816780-controle-remoto-de-longa-distacia-jfa-k600-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte 120a Jfa Storm Bivolt Medidor Cca E Sci Automotiva </t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>749.65</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle Remoto  K600 Jfa 600 Metros</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>58.13</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
@@ -1934,12 +2038,47 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976804576-fonte-120a-jfa-storm-bivolt-medidor-cca-e-sci-automotiva-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6cbb7793-ca6c-4028-9264-74e9336c4ca0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4063881402-controle-remoto-k600-jfa-600-metros-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonte 120a Jfa Storm Bivolt Medidor Cca E Sci Automotiva </t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>749.65</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3976804576-fonte-120a-jfa-storm-bivolt-medidor-cca-e-sci-automotiva-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
         </is>
       </c>
     </row>

--- a/dados/shop audio.xlsx
+++ b/dados/shop audio.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:16759979#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:16759979#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=d11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:16759979#searchVariation=MLB21562641&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:16759979#searchVariation=MLB21562641&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=d11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:16759979#searchVariation=MLB24154371&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:16759979#searchVariation=MLB24154371&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=d11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
@@ -606,29 +606,25 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:16759979#searchVariation=MLB21320712&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:16759979#searchVariation=MLB21320712&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=d11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600 Comple Cor Amarelo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>693.7</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>NA</t>
@@ -641,7 +637,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:16759979#searchVariation=MLB24834408&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-cor-amarelo/p/MLB21562625?pdp_filters=seller_id:16759979#searchVariation=MLB21562625&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=d11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
@@ -653,13 +649,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>77.90000000000001</v>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -672,25 +672,29 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:16759979#searchVariation=MLB27687422&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:16759979#searchVariation=MLB27687422&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=d11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>693.7</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>NA</t>
@@ -698,32 +702,32 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:16759979#searchVariation=MLB30476096&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:16759979#searchVariation=MLB24834408&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=d11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>704.89</v>
+        <v>66.2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -733,30 +737,34 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:16759979#searchVariation=MLB21392652&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:16759979#searchVariation=MLB30476096&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=d11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Controle De Longa Distancia Jfa K600 600 Metros Com 10 Cores Cor</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>58.13</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>634.4</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>NA</t>
@@ -769,27 +777,27 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:16759979#searchVariation=MLB28243528&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:16759979#searchVariation=MLB21392652&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=d11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Controle De Longa Distancia Jfa K600 600 Metros Com 10 Cores Cor</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>595.85</v>
+        <v>58.13</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -804,25 +812,29 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:16759979#searchVariation=MLB23998473&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:16759979#searchVariation=MLB28243528&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=d11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fonte E Carregadora Jfa Bob Storm 200a Lite Bivolt</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>772.02</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>548.24</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>NA</t>
@@ -830,34 +842,30 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482119509-fonte-e-carregadora-jfa-bob-storm-200a-lite-bivolt-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:16759979#searchVariation=MLB21455208&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=d11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Jfa Storm 120a C/medidor Cca E Sci</t>
+          <t xml:space="preserve"> Fonte E Carregadora Jfa Bob Storm 200a Lite Bivolt</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>749.65</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>772.02</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -870,27 +878,27 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443863235-fonte-e-carregadora-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482119509-fonte-e-carregadora-jfa-bob-storm-200a-lite-bivolt-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Jfa Storm Lite 120a Lite 12v Bivolt</t>
+          <t>Fonte E Carregadora Jfa Storm 120a C/medidor Cca E Sci</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>637.0700000000001</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -905,7 +913,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4130386596-fonte-e-carregadora-jfa-storm-lite-120a-lite-12v-bivolt-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3443863235-fonte-e-carregadora-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
@@ -917,13 +925,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>NA</t>
@@ -936,27 +948,27 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453565395-controle-remoto-de-longa-distacia-jfa-1200-acqua-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453565395-controle-remoto-de-longa-distacia-jfa-1200-acqua-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>548.24</v>
+        <v>536.26</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -971,23 +983,23 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:16759979#searchVariation=MLB21455208&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:16759979#searchVariation=MLB23998473&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=d11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Jfa Storm 60a C/medidor Cca E Sci</t>
+          <t>Fonte Carregador Automotiva 70a Jfa Sistema Storm</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>525.87</v>
+        <v>581.8200000000001</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1006,7 +1018,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043499656-fonte-e-carregadora-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2040792214-fonte-carregador-automotiva-70a-jfa-sistema-storm-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1053,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043537196-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043537196-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1088,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043447922-fonte-carregadora-bateria-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043447922-fonte-carregadora-bateria-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1113,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1111,27 +1123,27 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976874772-fonte-carregador-jfa-bob-90-amperes-bivolt-inteligente-full-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976874772-fonte-carregador-jfa-bob-90-amperes-bivolt-inteligente-full-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Jfa 200a Automotiva Slim Bivolt Voltímetro Digital Som</t>
+          <t>Fonte E Carregadora Jfa Storm Lite 120a Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>847.99</v>
+        <v>573.36</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1141,30 +1153,34 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4034737960-fonte-jfa-200a-automotiva-slim-bivolt-voltimetro-digital-som-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4130386596-fonte-e-carregadora-jfa-storm-lite-120a-lite-12v-bivolt-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Controle Jfa Redline Wr De Longa Distacia Longo Alcance</t>
+          <t>Fonte E Carregadora Jfa Storm 60a C/medidor Cca E Sci</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>77.98999999999999</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>525.87</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1172,32 +1188,32 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063639678-controle-jfa-redline-wr-de-longa-distacia-longo-alcance-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043499656-fonte-e-carregadora-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carrregador 200a Storm Lite Automotiva Bivolt</t>
+          <t>Controle Jfa Redline Wr De Longa Distacia Longo Alcance</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>757.59</v>
+        <v>77.98999999999999</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1212,23 +1228,23 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482092415-fonte-jfa-carrregador-200a-storm-lite-automotiva-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4063639678-controle-jfa-redline-wr-de-longa-distacia-longo-alcance-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carrregador 120a Storm Lite Automotiva 12v Bivolt</t>
+          <t>Fonte Jfa 200a Automotiva Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>595.85</v>
+        <v>847.99</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1247,7 +1263,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4130348370-fonte-jfa-carrregador-120a-storm-lite-automotiva-12v-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4034737960-fonte-jfa-200a-automotiva-slim-bivolt-voltimetro-digital-som-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1298,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482145079-fonte-jfa-carrregador-200a-bob-storm-automotiva-bivolt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482145079-fonte-jfa-carrregador-200a-bob-storm-automotiva-bivolt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1333,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3441604121-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3441604121-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
@@ -1329,13 +1345,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>66.2</v>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1348,23 +1368,23 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486525140-controle-jfa-k1200-longa-distancia-1200-metros-som-branco-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1486525140-controle-jfa-k1200-longa-distancia-1200-metros-som-branco-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Bob Storm 90amperes Jfa</t>
+          <t>Fonte Jfa Carrregador 200a Storm Lite Automotiva Bivolt</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>469.92</v>
+        <v>757.59</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1383,27 +1403,27 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3445532345-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482092415-fonte-jfa-carrregador-200a-storm-lite-automotiva-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>704.89</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1413,30 +1433,34 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443939751-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:16759979#searchVariation=MLB27685629&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=d11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Controle De Longa Distancia Jfa K600 Longo Alcancecontrole D</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>564.48</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1444,28 +1468,28 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063855484-controle-de-longa-distancia-jfa-k600-longo-alcancecontrole-d-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4130348364-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
+          <t>Fonte E Carregadora Bob Storm 90amperes Jfa</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>548.24</v>
+        <v>469.92</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1484,23 +1508,23 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3445541585-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3445532345-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Jfa Storm Lite 200a Bivolt </t>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>757.59</v>
+        <v>675</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1514,12 +1538,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482092379-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976837034-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
@@ -1535,11 +1559,11 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>749.65</v>
+        <v>634.4</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1549,28 +1573,28 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976837034-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3443939751-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>595.85</v>
+        <v>548.24</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1589,23 +1613,23 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4130348364-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3445541585-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70a Jfa Carregador Bateria Bivolt</t>
+          <t>Controle De Longa Distancia Jfa K600 Longo Alcancecontrole D</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>548.24</v>
+        <v>69.2</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1619,30 +1643,34 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2040798508-fonte-automotiva-70a-jfa-carregador-bateria-bivolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4063855484-controle-de-longa-distancia-jfa-k600-longo-alcancecontrole-d-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t xml:space="preserve">Fonte Carregador Jfa Storm Lite 200a Bivolt </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
+        <v>757.59</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1650,28 +1678,28 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:16759979#searchVariation=MLB27685629&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482092379-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
+          <t>Fonte Automotiva 70a Jfa Carregador Bateria Bivolt</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>492.3</v>
+        <v>548.24</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1690,27 +1718,27 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043499652-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2040798508-fonte-automotiva-70a-jfa-carregador-bateria-bivolt-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 70a 3500w Carregador Bateria Bivolt</t>
+          <t>Controle K600 Jfa Longa Alcance 600 Metros Som Automotivo</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>581.8200000000001</v>
+        <v>58.13</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1725,25 +1753,29 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2040798511-fonte-automotiva-jfa-70a-3500w-carregador-bateria-bivolt-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2051476762-controle-k600-jfa-longa-alcance-600-metros-som-automotivo-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Controle K600 Jfa Longa Alcance 600 Metros Som Automotivo</t>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>58.13</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
+        <v>492.3</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1751,12 +1783,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2051476762-controle-k600-jfa-longa-alcance-600-metros-som-automotivo-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043499652-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1823,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3445532487-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3445532487-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1858,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482119493-fonte-carregador-automotiva-jfa-bob-storm-200a-bivolt-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482119493-fonte-carregador-automotiva-jfa-bob-storm-200a-bivolt-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
@@ -1838,13 +1870,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>66.2</v>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1857,7 +1893,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486588704-controle-jfa-k1200-longa-distancia-1200-metros-som-preto-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1486588704-controle-jfa-k1200-longa-distancia-1200-metros-som-preto-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
@@ -1869,13 +1905,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>76.98999999999999</v>
       </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1888,7 +1928,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453641643-controle-remoto-jfa-1200-acqua-longe-alcance-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453641643-controle-remoto-jfa-1200-acqua-longe-alcance-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
@@ -1900,13 +1940,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1919,7 +1963,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453664851-controle-de-longa-distancia-jfa-1200-acqua-branco-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453664851-controle-de-longa-distancia-jfa-1200-acqua-branco-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
@@ -1931,13 +1975,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>58.13</v>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1950,7 +1998,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063881414-controle-jfa-k600-longa-distacia-longo-alcance-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4063881414-controle-jfa-k600-longa-distacia-longo-alcance-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
@@ -1962,13 +2010,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>62.89</v>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1981,7 +2033,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453774553-controle-longa-distncia-600-metros-jfa-k600-preto-laranja-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453774553-controle-longa-distncia-600-metros-jfa-k600-preto-laranja-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
@@ -1993,13 +2045,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>62.89</v>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2012,7 +2068,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063816780-controle-remoto-de-longa-distacia-jfa-k600-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4063816780-controle-remoto-de-longa-distacia-jfa-k600-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
@@ -2024,13 +2080,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>58.13</v>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2043,7 +2103,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063881402-controle-remoto-k600-jfa-600-metros-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4063881402-controle-remoto-k600-jfa-600-metros-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>
@@ -2059,11 +2119,11 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>749.65</v>
+        <v>674.67</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2078,7 +2138,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976804576-fonte-120a-jfa-storm-bivolt-medidor-cca-e-sci-automotiva-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7d547304-2b74-4669-a33f-570f1a24d5b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976804576-fonte-120a-jfa-storm-bivolt-medidor-cca-e-sci-automotiva-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
         </is>
       </c>
     </row>

--- a/dados/shop audio.xlsx
+++ b/dados/shop audio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,1672 +483,2066 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>805.59</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>492.3</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:16759979#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=d11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:16759979#searchVariation=MLB21320712&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>443.07</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>77.90000000000001</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:16759979#searchVariation=MLB21562641&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=d11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:16759979#searchVariation=MLB27687422&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>FONTE 200A LITE</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>796.35</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E4" t="n">
+        <v>716.71</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:16759979#searchVariation=MLB24154371&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=d11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:16759979#searchVariation=MLB24154371&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>492.3</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>805.59</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:16759979#searchVariation=MLB21320712&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=d11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:16759979#searchVariation=MLB21348561&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600 Comple Cor Amarelo</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>654</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>624.33</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-cor-amarelo/p/MLB21562625?pdp_filters=seller_id:16759979#searchVariation=MLB21562625&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=d11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:16759979#searchVariation=MLB24834408&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>77.90000000000001</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:16759979#searchVariation=MLB27687422&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=d11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:16759979#searchVariation=MLB30476096&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>693.7</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>634.4</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:16759979#searchVariation=MLB24834408&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=d11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:16759979#searchVariation=MLB21392652&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>66.2</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Controle De Longa Distancia Jfa K600 600 Metros Com 10 Cores Cor</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>58.13</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:16759979#searchVariation=MLB30476096&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=d11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:16759979#searchVariation=MLB28243528&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>634.4</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600 Comple Cor Amarelo</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>726.67</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:16759979#searchVariation=MLB21392652&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=d11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-cor-amarelo/p/MLB21562625?pdp_filters=seller_id:16759979#searchVariation=MLB21562625&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Controle De Longa Distancia Jfa K600 600 Metros Com 10 Cores Cor</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>58.13</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fonte E Carregadora Jfa Storm 120a C/medidor Cca E Sci</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:16759979#searchVariation=MLB28243528&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=d11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3443863235-fonte-e-carregadora-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>548.24</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Controle Remoto De Longa Distacia Jfa 1200 Acqua</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>87.90000000000001</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:16759979#searchVariation=MLB21455208&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=d11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3453565395-controle-remoto-de-longa-distacia-jfa-1200-acqua-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fonte E Carregadora Jfa Bob Storm 200a Lite Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>772.02</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>548.24</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482119509-fonte-e-carregadora-jfa-bob-storm-200a-lite-bivolt-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:16759979#searchVariation=MLB21455208&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Jfa Storm 120a C/medidor Cca E Sci</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>674.6799999999999</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob 90 Amperes Bivolt Inteligente Full</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>443.07</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443863235-fonte-e-carregadora-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3976874772-fonte-carregador-jfa-bob-90-amperes-bivolt-inteligente-full-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Controle Remoto De Longa Distacia Jfa 1200 Acqua</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>87.90000000000001</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>536.26</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453565395-controle-remoto-de-longa-distacia-jfa-1200-acqua-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:16759979#searchVariation=MLB23998473&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>536.26</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fonte E Carregadora Jfa Storm 70a C/medidor Cca E Sci</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>581.8200000000001</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:16759979#searchVariation=MLB23998473&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=d11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4043537196-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva 70a Jfa Sistema Storm</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>581.8200000000001</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Fonte E Carregadora Jfa Storm 60a C/medidor Cca E Sci</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>525.87</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2040792214-fonte-carregador-automotiva-70a-jfa-sistema-storm-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4043499656-fonte-e-carregadora-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Jfa Storm 70a C/medidor Cca E Sci</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>581.8200000000001</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Fonte Jfa 200a Automotiva Slim Bivolt Voltímetro Digital Som</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>805.59</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043537196-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4034737960-fonte-jfa-200a-automotiva-slim-bivolt-voltimetro-digital-som-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Carregadora Bateria Jfa Storm 70a C/medidor Cca E Sci</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>581.8200000000001</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fonte Jfa Carrregador 200a Storm Lite Automotiva Bivolt</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>757.59</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043447922-fonte-carregadora-bateria-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3482092415-fonte-jfa-carrregador-200a-storm-lite-automotiva-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 90 Amperes Bivolt Inteligente Full</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>492.3</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva 70a Jfa Sistema Storm</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>581.8200000000001</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976874772-fonte-carregador-jfa-bob-90-amperes-bivolt-inteligente-full-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2040792214-fonte-carregador-automotiva-70a-jfa-sistema-storm-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>Fonte E Carregadora Jfa Storm Lite 120a Lite 12v Bivolt</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>FONTE 120A LITE</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="E21" t="n">
         <v>573.36</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4130386596-fonte-e-carregadora-jfa-storm-lite-120a-lite-12v-bivolt-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4130386596-fonte-e-carregadora-jfa-storm-lite-120a-lite-12v-bivolt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Jfa Storm 60a C/medidor Cca E Sci</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>525.87</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fonte Jfa Carrregador 200a Bob Storm Automotiva Bivolt</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>693.7</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043499656-fonte-e-carregadora-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3482145079-fonte-jfa-carrregador-200a-bob-storm-automotiva-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Controle Jfa Redline Wr De Longa Distacia Longo Alcance</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>77.98999999999999</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Fonte Carregadora Bateria Jfa Storm 70a C/medidor Cca E Sci</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>581.8200000000001</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063639678-controle-jfa-redline-wr-de-longa-distacia-longo-alcance-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4043447922-fonte-carregadora-bateria-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Jfa 200a Automotiva Slim Bivolt Voltímetro Digital Som</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>847.99</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Branco</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>66.2</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4034737960-fonte-jfa-200a-automotiva-slim-bivolt-voltimetro-digital-som-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1486525140-controle-jfa-k1200-longa-distancia-1200-metros-som-branco-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carrregador 200a Bob Storm Automotiva Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>693.7</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>77.90000000000001</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482145079-fonte-jfa-carrregador-200a-bob-storm-automotiva-bivolt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:16759979#searchVariation=MLB27685629&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>847.99</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Controle De Longa Distancia Jfa K600 Longo Alcancecontrole D</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3441604121-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4063855484-controle-de-longa-distancia-jfa-k600-longo-alcancecontrole-d-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Branco</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Preto</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="E27" t="n">
         <v>66.2</v>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486525140-controle-jfa-k1200-longa-distancia-1200-metros-som-branco-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1486588704-controle-jfa-k1200-longa-distancia-1200-metros-som-preto-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carrregador 200a Storm Lite Automotiva Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>757.59</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>564.48</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482092415-fonte-jfa-carrregador-200a-storm-lite-automotiva-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4130348364-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>77.90000000000001</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Controle K600 Jfa Longa Alcance 600 Metros Som Automotivo</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>58.13</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:16759979#searchVariation=MLB27685629&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=d11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2051476762-controle-k600-jfa-longa-alcance-600-metros-som-automotivo-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>564.48</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>847.99</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4130348364-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3441604121-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>Fonte E Carregadora Bob Storm 90amperes Jfa</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>FONTE 90 BOB</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>469.92</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E31" t="n">
+        <v>422.93</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3445532345-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3445532345-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonte 120a Jfa Storm Bivolt Medidor Cca E Sci Automotiva </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>FONTE 120A STORM</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>675</v>
-      </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="n">
+        <v>749.64</v>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976837034-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3976804576-fonte-120a-jfa-storm-bivolt-medidor-cca-e-sci-automotiva-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>FONTE 120A STORM</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="E33" t="n">
         <v>634.4</v>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443939751-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3443939751-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>FONTE 70A STORM</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="E34" t="n">
         <v>548.24</v>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3445541585-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3445541585-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Controle De Longa Distancia Jfa K600 Longo Alcancecontrole D</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>69.2</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Controle Remoto Jfa 1200 Acqua Longe Alcance</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>76.98999999999999</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063855484-controle-de-longa-distancia-jfa-k600-longo-alcancecontrole-d-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3453641643-controle-remoto-jfa-1200-acqua-longe-alcance-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t xml:space="preserve">Fonte Carregador Jfa Storm Lite 200a Bivolt </t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>FONTE 200A LITE</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>757.59</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E36" t="n">
+        <v>681.83</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482092379-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3482092379-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70a Jfa Carregador Bateria Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>548.24</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>492.3</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2040798508-fonte-automotiva-70a-jfa-carregador-bateria-bivolt-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4043499652-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Controle K600 Jfa Longa Alcance 600 Metros Som Automotivo</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>58.13</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 70a Jfa Carregador Bateria Bivolt</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>548.24</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2051476762-controle-k600-jfa-longa-alcance-600-metros-som-automotivo-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2040798508-fonte-automotiva-70a-jfa-carregador-bateria-bivolt-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>492.3</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Controle De Longa Distancia Jfa 1200 Acqua Branco</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>78.90000000000001</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043499652-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3453664851-controle-de-longa-distancia-jfa-1200-acqua-branco-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fonte Jfa 90 Amperes Som Altomotivo Caixa Bob Promoçao Black</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>469.92</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Controle Jfa K600 Longa Distacia Longo Alcance</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>58.13</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3445532487-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4063881414-controle-jfa-k600-longa-distacia-longo-alcance-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa Bob Storm 200a Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>693.7</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Fonte Jfa 90 Amperes Som Altomotivo Caixa Bob Promoçao Black</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>422.93</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482119493-fonte-carregador-automotiva-jfa-bob-storm-200a-bivolt-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3445532487-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>66.2</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa Bob Storm 200a Bivolt</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>624.33</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486588704-controle-jfa-k1200-longa-distancia-1200-metros-som-preto-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3482119493-fonte-carregador-automotiva-jfa-bob-storm-200a-bivolt-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa 1200 Acqua Longe Alcance</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>76.98999999999999</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Vermelho</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>78.88</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453641643-controle-remoto-jfa-1200-acqua-longe-alcance-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1486462897-controle-jfa-k1200-longa-distancia-1200-metros-som-vermelho-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Controle De Longa Distancia Jfa 1200 Acqua Branco</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>78.90000000000001</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância 600 Metros Jfa K600 Preto-laranja</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>62.89</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453664851-controle-de-longa-distancia-jfa-1200-acqua-branco-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3453774553-controle-longa-distncia-600-metros-jfa-k600-preto-laranja-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Controle Jfa K600 Longa Distacia Longo Alcance</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>58.13</v>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>675</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063881414-controle-jfa-k600-longa-distacia-longo-alcance-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3976837034-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Controle Longa Distância 600 Metros Jfa K600 Preto-laranja</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Controle Remoto De Longa Distacia Jfa K600</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>K600</t>
         </is>
       </c>
-      <c r="C46" t="n">
+      <c r="E46" t="n">
         <v>62.89</v>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453774553-controle-longa-distncia-600-metros-jfa-k600-preto-laranja-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4063816780-controle-remoto-de-longa-distacia-jfa-k600-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Controle Remoto De Longa Distacia Jfa K600</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Controle Remoto  K600 Jfa 600 Metros</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>K600</t>
         </is>
       </c>
-      <c r="C47" t="n">
-        <v>62.89</v>
-      </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="n">
+        <v>58.13</v>
+      </c>
+      <c r="F47" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063816780-controle-remoto-de-longa-distacia-jfa-k600-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Controle Remoto  K600 Jfa 600 Metros</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>58.13</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063881402-controle-remoto-k600-jfa-600-metros-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fonte 120a Jfa Storm Bivolt Medidor Cca E Sci Automotiva </t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>674.67</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976804576-fonte-120a-jfa-storm-bivolt-medidor-cca-e-sci-automotiva-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd11aa974-3c83-4c3b-a53d-6c0a487acfac</t>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4063881402-controle-remoto-k600-jfa-600-metros-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
         </is>
       </c>
     </row>

--- a/dados/shop audio.xlsx
+++ b/dados/shop audio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,16 +493,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Jfa Carrregador 120a Storm Lite Automotiva 12v Bivolt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>492.3</v>
+        <v>613.73</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:16759979#searchVariation=MLB21320712&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4130348370-fonte-jfa-carrregador-120a-storm-lite-automotiva-12v-bivolt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,22 +538,18 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600 Comple Cor Amarelo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+        <v>726.67</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>NA</t>
@@ -561,19 +557,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:16759979#searchVariation=MLB27687422&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-cor-amarelo/p/MLB21562625?pdp_filters=seller_id:16759979#searchVariation=MLB21562625&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,20 +579,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>716.71</v>
+        <v>847.99</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -606,19 +602,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:16759979#searchVariation=MLB24154371&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:16759979#searchVariation=MLB21348561&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,20 +624,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Controle Remoto De Longa Distacia Jfa 1200 Acqua</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>805.59</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -651,19 +647,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:16759979#searchVariation=MLB21348561&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453565395-controle-remoto-de-longa-distacia-jfa-1200-acqua-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,25 +669,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>624.33</v>
+        <v>747.92</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -701,14 +697,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:16759979#searchVariation=MLB24834408&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4034735358-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,20 +714,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+          <t>Fonte Carregador Automotiva 70a Jfa Sistema Storm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>66.2</v>
+        <v>581.8200000000001</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -746,14 +742,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:16759979#searchVariation=MLB30476096&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2040792214-fonte-carregador-automotiva-70a-jfa-sistema-storm-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -763,20 +759,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Controle De Longa Distancia Jfa K600 600 Metros Com 10 Cores Cor</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>634.4</v>
+        <v>58.13</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -791,14 +787,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:16759979#searchVariation=MLB21392652&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:16759979#searchVariation=MLB28243528&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -808,22 +804,18 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Controle De Longa Distancia Jfa K600 600 Metros Com 10 Cores Cor</t>
+          <t xml:space="preserve"> Fonte E Carregadora Jfa Bob Storm 200a Lite Bivolt</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>58.13</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+        <v>772.02</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>NA</t>
@@ -831,19 +823,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:16759979#searchVariation=MLB28243528&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482119509-fonte-e-carregadora-jfa-bob-storm-200a-lite-bivolt-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -853,18 +845,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600 Comple Cor Amarelo</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>726.67</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
+        <v>704.89</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>NA</t>
@@ -877,14 +873,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-cor-amarelo/p/MLB21562625?pdp_filters=seller_id:16759979#searchVariation=MLB21562625&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:16759979#searchVariation=MLB21392652&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -894,20 +890,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Jfa Storm 120a C/medidor Cca E Sci</t>
+          <t>Fonte E Carregadora Jfa Storm 70a C/medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>674.6799999999999</v>
+        <v>581.8200000000001</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -922,14 +918,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443863235-fonte-e-carregadora-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043537196-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -939,25 +935,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Controle Remoto De Longa Distacia Jfa 1200 Acqua</t>
+          <t>Fonte Carregador Jfa Bob 90 Amperes Bivolt Inteligente Full</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>87.90000000000001</v>
+        <v>492.3</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -967,14 +963,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453565395-controle-remoto-de-longa-distacia-jfa-1200-acqua-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976874772-fonte-carregador-jfa-bob-90-amperes-bivolt-inteligente-full-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -984,20 +980,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>548.24</v>
+        <v>66.2</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1007,19 +1003,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:16759979#searchVariation=MLB21455208&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:16759979#searchVariation=MLB30476096&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1029,20 +1025,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 90 Amperes Bivolt Inteligente Full</t>
+          <t>Fonte E Carregadora Jfa Storm 120a C/medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>443.07</v>
+        <v>749.64</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1057,14 +1053,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976874772-fonte-carregador-jfa-bob-90-amperes-bivolt-inteligente-full-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3443863235-fonte-e-carregadora-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1083,11 +1079,11 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>536.26</v>
+        <v>613.73</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1102,14 +1098,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:16759979#searchVariation=MLB23998473&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:16759979#searchVariation=MLB23998473&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1119,7 +1115,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Jfa Storm 70a C/medidor Cca E Sci</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1128,7 +1124,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>581.8200000000001</v>
+        <v>548.24</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1142,19 +1138,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043537196-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:16759979#searchVariation=MLB21455208&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1192,14 +1188,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043499656-fonte-e-carregadora-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043499656-fonte-e-carregadora-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1209,20 +1205,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fonte Jfa 200a Automotiva Slim Bivolt Voltímetro Digital Som</t>
+          <t>Fonte E Carregadora Jfa Storm Lite 120a Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>805.59</v>
+        <v>656.1799999999999</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1232,19 +1228,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4034737960-fonte-jfa-200a-automotiva-slim-bivolt-voltimetro-digital-som-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4130386596-fonte-e-carregadora-jfa-storm-lite-120a-lite-12v-bivolt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1254,20 +1250,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carrregador 200a Storm Lite Automotiva Bivolt</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>757.59</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1277,19 +1273,19 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482092415-fonte-jfa-carrregador-200a-storm-lite-automotiva-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:16759979#searchVariation=MLB27685629&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1299,16 +1295,16 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva 70a Jfa Sistema Storm</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>581.8200000000001</v>
+        <v>693.7</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1322,19 +1318,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2040792214-fonte-carregador-automotiva-70a-jfa-sistema-storm-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:16759979#searchVariation=MLB24834408&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1344,20 +1340,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Jfa Storm Lite 120a Lite 12v Bivolt</t>
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Branco</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>573.36</v>
+        <v>66.2</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1372,14 +1368,14 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4130386596-fonte-e-carregadora-jfa-storm-lite-120a-lite-12v-bivolt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1486525140-controle-jfa-k1200-longa-distancia-1200-metros-som-branco-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1417,14 +1413,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482145079-fonte-jfa-carrregador-200a-bob-storm-automotiva-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482145079-fonte-jfa-carrregador-200a-bob-storm-automotiva-bivolt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1434,16 +1430,16 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fonte Carregadora Bateria Jfa Storm 70a C/medidor Cca E Sci</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>581.8200000000001</v>
+        <v>820.25</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1452,7 +1448,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1462,14 +1458,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043447922-fonte-carregadora-bateria-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:16759979#searchVariation=MLB24154371&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1479,20 +1475,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Branco</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>66.2</v>
+        <v>492.3</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1502,19 +1498,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486525140-controle-jfa-k1200-longa-distancia-1200-metros-som-branco-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:16759979#searchVariation=MLB21320712&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1552,14 +1548,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:16759979#searchVariation=MLB27685629&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:16759979#searchVariation=MLB27687422&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1569,16 +1565,16 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Controle De Longa Distancia Jfa K600 Longo Alcancecontrole D</t>
+          <t>Fonte Carregadora Bateria Jfa Storm 70a C/medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>69.2</v>
+        <v>581.8200000000001</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1597,14 +1593,14 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063855484-controle-de-longa-distancia-jfa-k600-longo-alcancecontrole-d-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043447922-fonte-carregadora-bateria-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1642,14 +1638,14 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486588704-controle-jfa-k1200-longa-distancia-1200-metros-som-preto-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1486588704-controle-jfa-k1200-longa-distancia-1200-metros-som-preto-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1659,16 +1655,16 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
+          <t>Controle De Longa Distancia Jfa K600 Longo Alcancecontrole D</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>564.48</v>
+        <v>69.2</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1682,19 +1678,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4130348364-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4063855484-controle-de-longa-distancia-jfa-k600-longo-alcancecontrole-d-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1704,20 +1700,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Controle K600 Jfa Longa Alcance 600 Metros Som Automotivo</t>
+          <t>Fonte E Carregadora Bob Storm 90amperes Jfa</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>58.13</v>
+        <v>469.93</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1727,19 +1723,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2051476762-controle-k600-jfa-longa-alcance-600-metros-som-automotivo-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3445532345-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1749,16 +1745,16 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
+          <t>Fonte Jfa Carrregador 200a Storm Lite Automotiva Bivolt</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>847.99</v>
+        <v>780.33</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1777,14 +1773,14 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3441604121-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482092415-fonte-jfa-carrregador-200a-storm-lite-automotiva-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1794,20 +1790,20 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Bob Storm 90amperes Jfa</t>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>422.93</v>
+        <v>749.64</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1817,19 +1813,19 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3445532345-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976837034-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1839,16 +1835,16 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte 120a Jfa Storm Bivolt Medidor Cca E Sci Automotiva </t>
+          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>749.64</v>
+        <v>847.99</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1862,19 +1858,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976804576-fonte-120a-jfa-storm-bivolt-medidor-cca-e-sci-automotiva-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3441604121-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1884,20 +1880,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>634.4</v>
+        <v>613.73</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1912,14 +1908,14 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443939751-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4130348364-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1929,20 +1925,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
+          <t>Controle K600 Jfa Longa Alcance 600 Metros Som Automotivo</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>548.24</v>
+        <v>58.13</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1952,19 +1948,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3445541585-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2051476762-controle-k600-jfa-longa-alcance-600-metros-som-automotivo-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1974,20 +1970,20 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa 1200 Acqua Longe Alcance</t>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>76.98999999999999</v>
+        <v>492.3</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1997,19 +1993,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453641643-controle-remoto-jfa-1200-acqua-longe-alcance-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043499652-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2019,20 +2015,20 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Jfa Storm Lite 200a Bivolt </t>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>681.83</v>
+        <v>548.24</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2047,14 +2043,14 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482092379-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3445541585-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2064,16 +2060,16 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>492.3</v>
+        <v>704.89</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2092,14 +2088,14 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043499652-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3443939751-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2109,20 +2105,20 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70a Jfa Carregador Bateria Bivolt</t>
+          <t>Controle Remoto Jfa 1200 Acqua Longe Alcance</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>548.24</v>
+        <v>76.98999999999999</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2132,19 +2128,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2040798508-fonte-automotiva-70a-jfa-carregador-bateria-bivolt-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453641643-controle-remoto-jfa-1200-acqua-longe-alcance-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2154,20 +2150,20 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Controle De Longa Distancia Jfa 1200 Acqua Branco</t>
+          <t xml:space="preserve">Fonte Carregador Jfa Storm Lite 200a Bivolt </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>78.90000000000001</v>
+        <v>780.33</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2182,14 +2178,14 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453664851-controle-de-longa-distancia-jfa-1200-acqua-branco-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482092379-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2199,20 +2195,20 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Controle Jfa K600 Longa Distacia Longo Alcance</t>
+          <t>Fonte Carregador Automotiva Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>58.13</v>
+        <v>693.7</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2227,14 +2223,14 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063881414-controle-jfa-k600-longa-distacia-longo-alcance-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482119493-fonte-carregador-automotiva-jfa-bob-storm-200a-bivolt-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2244,20 +2240,20 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fonte Jfa 90 Amperes Som Altomotivo Caixa Bob Promoçao Black</t>
+          <t>Controle Jfa K600 Longa Distacia Longo Alcance</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>422.93</v>
+        <v>58.13</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2272,14 +2268,14 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3445532487-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4063881414-controle-jfa-k600-longa-distacia-longo-alcance-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2289,20 +2285,20 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa Bob Storm 200a Bivolt</t>
+          <t>Fonte Jfa 90 Amperes Som Altomotivo Caixa Bob Promoçao Black</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>624.33</v>
+        <v>469.93</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2317,14 +2313,14 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482119493-fonte-carregador-automotiva-jfa-bob-storm-200a-bivolt-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3445532487-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2334,20 +2330,20 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Vermelho</t>
+          <t>Controle De Longa Distancia Jfa 1200 Acqua Branco</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>78.88</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2357,19 +2353,19 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486462897-controle-jfa-k1200-longa-distancia-1200-metros-som-vermelho-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453664851-controle-de-longa-distancia-jfa-1200-acqua-branco-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2379,20 +2375,20 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Controle Longa Distância 600 Metros Jfa K600 Preto-laranja</t>
+          <t>Fonte Automotiva 70a Jfa Carregador Bateria Bivolt</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>62.89</v>
+        <v>548.24</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2402,19 +2398,19 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453774553-controle-longa-distncia-600-metros-jfa-k600-preto-laranja-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2040798508-fonte-automotiva-70a-jfa-carregador-bateria-bivolt-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2424,20 +2420,20 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
+          <t>Controle Remoto  K600 Jfa 600 Metros</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>675</v>
+        <v>58.13</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2447,19 +2443,19 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976837034-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4063881402-controle-remoto-k600-jfa-600-metros-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2469,7 +2465,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Controle Remoto De Longa Distacia Jfa K600</t>
+          <t>Controle Longa Distância 600 Metros Jfa K600 Preto-laranja</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2497,14 +2493,14 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063816780-controle-remoto-de-longa-distacia-jfa-k600-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453774553-controle-longa-distncia-600-metros-jfa-k600-preto-laranja-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2514,7 +2510,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Controle Remoto  K600 Jfa 600 Metros</t>
+          <t>Controle Remoto De Longa Distacia Jfa K600</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2523,26 +2519,1286 @@
         </is>
       </c>
       <c r="E47" t="n">
+        <v>62.89</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4063816780-controle-remoto-de-longa-distacia-jfa-k600-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonte 120a Jfa Storm Bivolt Medidor Cca E Sci Automotiva </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>749.64</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3976804576-fonte-120a-jfa-storm-bivolt-medidor-cca-e-sci-automotiva-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Vermelho</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>78.88</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1486462897-controle-jfa-k1200-longa-distancia-1200-metros-som-vermelho-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Verde</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>66.98999999999999</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1486339648-controle-jfa-k1200-longa-distancia-1200-metros-som-verde-_JM#position%3D1%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Fonte Jfa Storm 70a Bivolt C/medidor Cca E Sci Automotiva</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>581.8200000000001</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3976830430-fonte-jfa-storm-70a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Controle Jfa 1200 Acqua De Longa Distacia Longo Alcance</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>77.25</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3453631149-controle-jfa-1200-acqua-de-longa-distacia-longo-alcance-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Automotiv</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1486283296-controle-jfa-k1200-longa-distancia-1200-metros-som-automotiv-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Colorido 1200 Metros Som</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1486415690-controle-longa-distancia-jfa-k1200-colorido-1200-metros-som-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Fonte Jfa 90 Amperes Som Altomotivo Caixa Bob Promoçao Black</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>492.3</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3976790970-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonte Jfa Som Altomotivo 90 Amperes Bob Bivolt 127 220v </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>469.93</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3976814478-fonte-jfa-som-altomotivo-90-amperes-bob-bivolt-127-220v-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Fonte Jfa Storm 60a Bivolt C/medidor Cca E Sci Automotiva</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>525.87</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3976826740-fonte-jfa-storm-60a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Fonte Carregadora Bateria Jfa Storm 60a C/medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>525.87</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3976826766-fonte-carregadora-bateria-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Fonte Carregadora Bateria Jfa Storm 70a C/medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>581.8200000000001</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3976868832-fonte-carregadora-bateria-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 90a Para Caixa Som Bob Bivolt Slim</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>469.93</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3976849514-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Controle Remoto Longa Distância Jfa K1200 Acqua</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3453667125-controle-remoto-longa-distncia-jfa-k1200-acqua-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>492.3</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3976889448-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Fonte Carregadora De Bateria Jfa Storm 120a Bivolt Cca E Sci</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>704.89</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3976815264-fonte-carregadora-de-bateria-jfa-storm-120a-bivolt-cca-e-sci-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Fonte E Carregadora Jfa Storm 60a C/medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>492.3</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3976793470-fonte-e-carregadora-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Fonte E Carregadora Jfa Storm 70a C/medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>548.24</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3976907004-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>548.24</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3432330263-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Controle K600 Jfa Longa Alcance Branco/cinza 600 Metros</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
         <v>58.13</v>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063881402-controle-remoto-k600-jfa-600-metros-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06245a4d-bdf5-4f9d-ae71-7759ef219ac0</t>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3453748801-controle-k600-jfa-longa-alcance-brancocinza-600-metros-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>704.89</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3976804586-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Colorido 1200 Metros Som</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>61.19</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1486415677-controle-longa-distancia-jfa-k1200-colorido-1200-metros-som-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Automotiv</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>71.19</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1486288532-controle-jfa-k1200-longa-distancia-1200-metros-som-automotiv-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Vermelho</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>77.88</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1486462876-controle-jfa-k1200-longa-distancia-1200-metros-som-vermelho-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Preto</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>61.19</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1486588674-controle-jfa-k1200-longa-distancia-1200-metros-som-preto-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Branco</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>61.19</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1486523866-controle-jfa-k1200-longa-distancia-1200-metros-som-branco-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 70a 3500w Carregador Bateria Bivolt</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>581.8200000000001</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2040798511-fonte-automotiva-jfa-70a-3500w-carregador-bateria-bivolt-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>shop audio</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Fonte Carregadora Bateria Jfa Storm 120a C/medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>749.64</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3443838615-fonte-carregadora-bateria-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
         </is>
       </c>
     </row>

--- a/dados/shop audio.xlsx
+++ b/dados/shop audio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carrregador 120a Storm Lite Automotiva 12v Bivolt</t>
+          <t>Fonte E Carregadora Jfa Storm Lite 120a Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>613.73</v>
+        <v>590.5599999999999</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4130348370-fonte-jfa-carrregador-120a-storm-lite-automotiva-12v-bivolt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4130386596-fonte-e-carregadora-jfa-storm-lite-120a-lite-12v-bivolt-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,18 +538,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600 Comple Cor Amarelo</t>
+          <t>Fonte E Carregadora Jfa Storm 70a C/medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>726.67</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>539.34</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>NA</t>
@@ -557,19 +561,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-cor-amarelo/p/MLB21562625?pdp_filters=seller_id:16759979#searchVariation=MLB21562625&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043537196-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -588,7 +592,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>847.99</v>
+        <v>871.24</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -597,24 +601,24 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:16759979#searchVariation=MLB21348561&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:16759979#wid=MLB4327293418&amp;sid=search&amp;searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -624,16 +628,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Controle Remoto De Longa Distacia Jfa 1200 Acqua</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>87.90000000000001</v>
+        <v>552.35</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -647,19 +651,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453565395-controle-remoto-de-longa-distacia-jfa-1200-acqua-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:16759979#wid=MLB3490052977&amp;sid=search&amp;searchVariation=MLB23998473&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -669,16 +673,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>747.92</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -687,24 +691,24 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4034735358-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:16759979#wid=MLB3609226263&amp;sid=search&amp;searchVariation=MLB27687422&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -714,16 +718,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva 70a Jfa Sistema Storm</t>
+          <t>Fonte Carregadora Bateria Jfa Storm 120a C/medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>581.8200000000001</v>
+        <v>694.92</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -742,14 +746,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2040792214-fonte-carregador-automotiva-70a-jfa-sistema-storm-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3443838615-fonte-carregadora-bateria-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -759,20 +763,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Controle De Longa Distancia Jfa K600 600 Metros Com 10 Cores Cor</t>
+          <t>Fonte Carregadora Bateria Jfa Storm 70a C/medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>58.13</v>
+        <v>539.34</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -782,19 +786,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:16759979#searchVariation=MLB28243528&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043447922-fonte-carregadora-bateria-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -804,18 +808,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fonte E Carregadora Jfa Bob Storm 200a Lite Bivolt</t>
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>772.02</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+        <v>66.2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>NA</t>
@@ -828,14 +836,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482119509-fonte-e-carregadora-jfa-bob-storm-200a-lite-bivolt-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:16759979#wid=MLB4444675836&amp;sid=search&amp;searchVariation=MLB30476096&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -854,11 +862,11 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>704.89</v>
+        <v>653.4299999999999</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -873,14 +881,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:16759979#searchVariation=MLB21392652&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:16759979#wid=MLB4107572240&amp;sid=search&amp;searchVariation=MLB21392652&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -890,42 +898,42 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Jfa Storm 70a C/medidor Cca E Sci</t>
+          <t>Fonte Carregador Jfa Bob 90 Amperes Bivolt Inteligente Full</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>581.8200000000001</v>
+        <v>435.62</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043537196-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976874772-fonte-carregador-jfa-bob-90-amperes-bivolt-inteligente-full-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -935,25 +943,21 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 90 Amperes Bivolt Inteligente Full</t>
+          <t xml:space="preserve"> Fonte E Carregadora Jfa Bob Storm 200a Lite Bivolt</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>492.3</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>715.66</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -963,14 +967,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976874772-fonte-carregador-jfa-bob-90-amperes-bivolt-inteligente-full-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482119509-fonte-e-carregadora-jfa-bob-storm-200a-lite-bivolt-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -980,22 +984,18 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600 Comple Cor Amarelo</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1003,19 +1003,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:16759979#searchVariation=MLB30476096&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-cor-amarelo/p/MLB21562625?pdp_filters=seller_id:16759979#wid=MLB3902529144&amp;sid=search&amp;searchVariation=MLB21562625&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1025,20 +1025,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Jfa Storm 120a C/medidor Cca E Sci</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>749.64</v>
+        <v>643.0599999999999</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1048,19 +1048,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443863235-fonte-e-carregadora-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:16759979#wid=MLB3490027417&amp;sid=search&amp;searchVariation=MLB24834408&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1070,16 +1070,16 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Controle Remoto De Longa Distacia Jfa 1200 Acqua</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>613.73</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1093,19 +1093,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:16759979#searchVariation=MLB23998473&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453565395-controle-remoto-de-longa-distacia-jfa-1200-acqua-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1115,16 +1115,16 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Branco</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>548.24</v>
+        <v>66.2</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1138,19 +1138,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:16759979#searchVariation=MLB21455208&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1486525140-controle-jfa-k1200-longa-distancia-1200-metros-som-branco-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Jfa Storm 60a C/medidor Cca E Sci</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1169,11 +1169,11 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>525.87</v>
+        <v>456.35</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1183,19 +1183,19 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043499656-fonte-e-carregadora-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:16759979#wid=MLB3453759801&amp;sid=search&amp;searchVariation=MLB21320712&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1205,20 +1205,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Jfa Storm Lite 120a Lite 12v Bivolt</t>
+          <t>Controle De Longa Distancia Jfa K600 600 Metros Com 10 Cores Cor</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>656.1799999999999</v>
+        <v>58.13</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1228,19 +1228,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4130386596-fonte-e-carregadora-jfa-storm-lite-120a-lite-12v-bivolt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:16759979#wid=MLB4346488748&amp;sid=search&amp;searchVariation=MLB28243528&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1250,16 +1250,16 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Automotiva 70a Jfa Carregador Bateria Bivolt</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>77.90000000000001</v>
+        <v>508.22</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1273,19 +1273,19 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:16759979#searchVariation=MLB27685629&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2040798508-fonte-automotiva-70a-jfa-carregador-bateria-bivolt-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1295,20 +1295,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>693.7</v>
+        <v>552.35</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1323,14 +1323,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:16759979#searchVariation=MLB24834408&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4130348364-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1340,20 +1340,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Branco</t>
+          <t>Controle Longa Distância 600 Metros Jfa K600 Preto-laranja</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>66.2</v>
+        <v>62.89</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1368,14 +1368,14 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486525140-controle-jfa-k1200-longa-distancia-1200-metros-som-branco-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453774553-controle-longa-distncia-600-metros-jfa-k600-preto-laranja-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1385,16 +1385,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carrregador 200a Bob Storm Automotiva Bivolt</t>
+          <t>Controle De Longa Distancia Jfa K600 Longo Alcancecontrole D</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>693.7</v>
+        <v>69.2</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1408,19 +1408,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482145079-fonte-jfa-carrregador-200a-bob-storm-automotiva-bivolt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4063855484-controle-de-longa-distancia-jfa-k600-longo-alcancecontrole-d-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t xml:space="preserve">Fonte Carregador Jfa Storm Lite 200a Bivolt </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1439,33 +1439,33 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>820.25</v>
+        <v>702.29</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:16759979#searchVariation=MLB24154371&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482092379-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1475,20 +1475,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>492.3</v>
+        <v>508.22</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1503,14 +1503,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:16759979#searchVariation=MLB21320712&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3445541585-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1520,16 +1520,16 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Jfa Carrregador 200a Storm Lite Automotiva Bivolt</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>77.90000000000001</v>
+        <v>702.29</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1543,19 +1543,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:16759979#searchVariation=MLB27687422&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482092415-fonte-jfa-carrregador-200a-storm-lite-automotiva-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1565,20 +1565,20 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fonte Carregadora Bateria Jfa Storm 70a C/medidor Cca E Sci</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>581.8200000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1593,14 +1593,14 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043447922-fonte-carregadora-bateria-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:16759979#wid=MLB4476263062&amp;sid=search&amp;searchVariation=MLB27685629&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1610,16 +1610,16 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Preto</t>
+          <t>Fonte Carregador Jfa 90a Para Caixa Som Bob Bivolt Slim</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>66.2</v>
+        <v>435.62</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1633,19 +1633,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486588704-controle-jfa-k1200-longa-distancia-1200-metros-som-preto-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976849514-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1655,20 +1655,20 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Controle De Longa Distancia Jfa K600 Longo Alcancecontrole D</t>
+          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>69.2</v>
+        <v>829.76</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1678,19 +1678,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063855484-controle-de-longa-distancia-jfa-k600-longo-alcancecontrole-d-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3441604121-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1700,20 +1700,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Bob Storm 90amperes Jfa</t>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>469.93</v>
+        <v>653.4299999999999</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1728,14 +1728,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3445532345-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3443939751-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1745,20 +1745,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carrregador 200a Storm Lite Automotiva Bivolt</t>
+          <t>Controle K600 Jfa Longa Alcance 600 Metros Som Automotivo</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>780.33</v>
+        <v>58.13</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1768,19 +1768,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482092415-fonte-jfa-carrregador-200a-storm-lite-automotiva-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2051476762-controle-k600-jfa-longa-alcance-600-metros-som-automotivo-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1790,16 +1790,16 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Preto</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>749.64</v>
+        <v>66.2</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1818,14 +1818,14 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976837034-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1486588704-controle-jfa-k1200-longa-distancia-1200-metros-som-preto-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1835,20 +1835,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
+          <t>Fonte Jfa 90 Amperes Som Altomotivo Caixa Bob Promoçao Black</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>847.99</v>
+        <v>435.62</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1863,14 +1863,14 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3441604121-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3445532487-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1880,20 +1880,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>613.73</v>
+        <v>456.35</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1908,14 +1908,14 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4130348364-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043499652-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Controle K600 Jfa Longa Alcance 600 Metros Som Automotivo</t>
+          <t>Controle Remoto De Longa Distacia Jfa K600</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1934,11 +1934,11 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>58.13</v>
+        <v>62.89</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1953,14 +1953,14 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2051476762-controle-k600-jfa-longa-alcance-600-metros-som-automotivo-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4063816780-controle-remoto-de-longa-distacia-jfa-k600-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1970,20 +1970,20 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
+          <t>Controle Remoto  K600 Jfa 600 Metros</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>492.3</v>
+        <v>58.13</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1998,14 +1998,14 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043499652-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4063881402-controle-remoto-k600-jfa-600-metros-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2015,20 +2015,20 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
+          <t>Controle Jfa K600 Longa Distacia Longo Alcance</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>548.24</v>
+        <v>58.13</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2043,14 +2043,14 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3445541585-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4063881414-controle-jfa-k600-longa-distacia-longo-alcance-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2060,20 +2060,20 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
+          <t>Controle De Longa Distancia Jfa 1200 Acqua Branco</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>704.89</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2088,14 +2088,14 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443939751-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453664851-controle-de-longa-distancia-jfa-1200-acqua-branco-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2133,14 +2133,14 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453641643-controle-remoto-jfa-1200-acqua-longe-alcance-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453641643-controle-remoto-jfa-1200-acqua-longe-alcance-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2150,20 +2150,20 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Jfa Storm Lite 200a Bivolt </t>
+          <t>Fonte Jfa 200a Automotiva Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>780.33</v>
+        <v>829.76</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2178,14 +2178,14 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482092379-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4034737960-fonte-jfa-200a-automotiva-slim-bivolt-voltimetro-digital-som-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2195,16 +2195,16 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa Bob Storm 200a Bivolt</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>693.7</v>
+        <v>738.22</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2213,24 +2213,24 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482119493-fonte-carregador-automotiva-jfa-bob-storm-200a-bivolt-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:16759979#wid=MLB4281709650&amp;sid=search&amp;searchVariation=MLB24154371&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2240,16 +2240,16 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Controle Jfa K600 Longa Distacia Longo Alcance</t>
+          <t>Fonte Jfa Carrregador 200a Bob Storm Automotiva Bivolt</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>58.13</v>
+        <v>643.0599999999999</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2268,14 +2268,14 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063881414-controle-jfa-k600-longa-distacia-longo-alcance-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482145079-fonte-jfa-carrregador-200a-bob-storm-automotiva-bivolt-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2285,16 +2285,16 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fonte Jfa 90 Amperes Som Altomotivo Caixa Bob Promoçao Black</t>
+          <t>Fonte Carregador Automotiva 70a Jfa Sistema Storm</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>469.93</v>
+        <v>539.34</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2308,19 +2308,19 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3445532487-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2040792214-fonte-carregador-automotiva-70a-jfa-sistema-storm-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2330,16 +2330,16 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Controle De Longa Distancia Jfa 1200 Acqua Branco</t>
+          <t>Fonte Carregador Automotiva Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>78.90000000000001</v>
+        <v>643.0599999999999</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2358,14 +2358,14 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453664851-controle-de-longa-distancia-jfa-1200-acqua-branco-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482119493-fonte-carregador-automotiva-jfa-bob-storm-200a-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70a Jfa Carregador Bateria Bivolt</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2384,11 +2384,11 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>548.24</v>
+        <v>508.22</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2403,14 +2403,14 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2040798508-fonte-automotiva-70a-jfa-carregador-bateria-bivolt-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:16759979#wid=MLB3597922059&amp;sid=search&amp;searchVariation=MLB21455208&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2420,16 +2420,16 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Controle Remoto  K600 Jfa 600 Metros</t>
+          <t>Fonte E Carregadora Bob Storm 90amperes Jfa</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>58.13</v>
+        <v>435.62</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2448,14 +2448,14 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063881402-controle-remoto-k600-jfa-600-metros-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3445532345-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2465,16 +2465,16 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Controle Longa Distância 600 Metros Jfa K600 Preto-laranja</t>
+          <t>Fonte Jfa Carrregador 120a Storm Lite Automotiva 12v Bivolt</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>62.89</v>
+        <v>552.35</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2488,19 +2488,19 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453774553-controle-longa-distncia-600-metros-jfa-k600-preto-laranja-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4130348370-fonte-jfa-carrregador-120a-storm-lite-automotiva-12v-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2510,20 +2510,20 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Controle Remoto De Longa Distacia Jfa K600</t>
+          <t>Fonte E Carregadora Jfa Storm 60a C/medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>62.89</v>
+        <v>487.47</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2538,14 +2538,14 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063816780-controle-remoto-de-longa-distacia-jfa-k600-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043499656-fonte-e-carregadora-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2555,16 +2555,16 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte 120a Jfa Storm Bivolt Medidor Cca E Sci Automotiva </t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>749.64</v>
+        <v>456.36</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2583,1222 +2583,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976804576-fonte-120a-jfa-storm-bivolt-medidor-cca-e-sci-automotiva-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>shop audio</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Vermelho</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>78.88</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486462897-controle-jfa-k1200-longa-distancia-1200-metros-som-vermelho-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D50e07978-37ba-49d1-9e2d-6a4a1d8a4950</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>shop audio</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Verde</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>66.98999999999999</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486339648-controle-jfa-k1200-longa-distancia-1200-metros-som-verde-_JM#position%3D1%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>shop audio</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Fonte Jfa Storm 70a Bivolt C/medidor Cca E Sci Automotiva</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>581.8200000000001</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976830430-fonte-jfa-storm-70a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>shop audio</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Controle Jfa 1200 Acqua De Longa Distacia Longo Alcance</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>77.25</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453631149-controle-jfa-1200-acqua-de-longa-distacia-longo-alcance-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>shop audio</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Automotiv</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486283296-controle-jfa-k1200-longa-distancia-1200-metros-som-automotiv-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>shop audio</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa K1200 Colorido 1200 Metros Som</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486415690-controle-longa-distancia-jfa-k1200-colorido-1200-metros-som-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>shop audio</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Fonte Jfa 90 Amperes Som Altomotivo Caixa Bob Promoçao Black</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>492.3</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976790970-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>shop audio</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fonte Jfa Som Altomotivo 90 Amperes Bob Bivolt 127 220v </t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>469.93</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976814478-fonte-jfa-som-altomotivo-90-amperes-bob-bivolt-127-220v-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>shop audio</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Fonte Jfa Storm 60a Bivolt C/medidor Cca E Sci Automotiva</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>525.87</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976826740-fonte-jfa-storm-60a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>shop audio</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Fonte Carregadora Bateria Jfa Storm 60a C/medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>525.87</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976826766-fonte-carregadora-bateria-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>shop audio</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Fonte Carregadora Bateria Jfa Storm 70a C/medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>581.8200000000001</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976868832-fonte-carregadora-bateria-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>shop audio</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Jfa 90a Para Caixa Som Bob Bivolt Slim</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>469.93</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976849514-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>shop audio</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Controle Remoto Longa Distância Jfa K1200 Acqua</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453667125-controle-remoto-longa-distncia-jfa-k1200-acqua-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>shop audio</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>492.3</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976889448-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>shop audio</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Fonte Carregadora De Bateria Jfa Storm 120a Bivolt Cca E Sci</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>704.89</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976815264-fonte-carregadora-de-bateria-jfa-storm-120a-bivolt-cca-e-sci-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>shop audio</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Fonte E Carregadora Jfa Storm 60a C/medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>492.3</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976793470-fonte-e-carregadora-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>shop audio</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Fonte E Carregadora Jfa Storm 70a C/medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>548.24</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976907004-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>shop audio</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>548.24</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3432330263-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>shop audio</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Controle K600 Jfa Longa Alcance Branco/cinza 600 Metros</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>58.13</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453748801-controle-k600-jfa-longa-alcance-brancocinza-600-metros-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>shop audio</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>704.89</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976804586-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>shop audio</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa K1200 Colorido 1200 Metros Som</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486415677-controle-longa-distancia-jfa-k1200-colorido-1200-metros-som-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>shop audio</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Automotiv</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>71.19</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486288532-controle-jfa-k1200-longa-distancia-1200-metros-som-automotiv-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>shop audio</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Vermelho</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>77.88</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486462876-controle-jfa-k1200-longa-distancia-1200-metros-som-vermelho-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>shop audio</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Preto</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486588674-controle-jfa-k1200-longa-distancia-1200-metros-som-preto-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>shop audio</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Branco</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486523866-controle-jfa-k1200-longa-distancia-1200-metros-som-branco-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>shop audio</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva Jfa 70a 3500w Carregador Bateria Bivolt</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>581.8200000000001</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2040798511-fonte-automotiva-jfa-70a-3500w-carregador-bateria-bivolt-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>shop audio</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Fonte Carregadora Bateria Jfa Storm 120a C/medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>749.64</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443838615-fonte-carregadora-bateria-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4385dbe1-cb2b-4cc7-a70c-164aa91c0425</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:16759979#wid=MLB4107666640&amp;sid=search&amp;searchVariation=MLB21562641&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=7e70e1d4-b19d-439f-b903-dc4ecb4e9025</t>
         </is>
       </c>
     </row>
